--- a/Firmwares/Tabela de codificação de sensores.xlsx
+++ b/Firmwares/Tabela de codificação de sensores.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Area de trabalho\Pessoal\UTFPR\Fórmula\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF593237-6EC2-4A60-8113-DB177DC9B08A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FF36B1E-81E3-44EE-A65E-6DD617E49928}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,13 +25,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Vitor Gervasi Adão</author>
     <author>Edelbrock-PC</author>
+    <author>Windows 7</author>
   </authors>
   <commentList>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{AAC7675E-778E-4659-B5A3-1034532B5F9A}">
+    <comment ref="H12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{EC9B92CC-7060-4060-AF83-769CF45E4ABC}">
+    <comment ref="I12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{7C4CE250-C6E6-4451-A3AC-4C66B0B4D8CB}">
+    <comment ref="J12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{6111B60B-F3CC-4FCE-AE07-E6C31B62E8CC}">
+    <comment ref="K12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{703BBB3E-0016-4596-9CC8-CC1175C1D8D3}">
+    <comment ref="L12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{592FB6C9-E3A9-41BD-9486-F821A338D983}">
+    <comment ref="M12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{FA420C8C-1745-4674-A3D0-5B3257274245}">
+    <comment ref="H13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -243,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{455A2812-3FC7-4443-84C9-E8CAA26D64E5}">
+    <comment ref="I13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -272,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{95C5A915-9C0E-4E5D-BD08-6FEF22242E5D}">
+    <comment ref="J13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -301,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{57D3C8C1-7F84-48AD-8223-5F746E9BAD02}">
+    <comment ref="K13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -331,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{21D6EA85-C638-4A22-8856-D10264F4881F}">
+    <comment ref="L13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -361,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{171FF2A6-FDBF-4326-8303-2E89EED679FF}">
+    <comment ref="M13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{0672CD9B-DE52-4EC1-9714-5DC3B76B1431}">
+    <comment ref="L14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{BD20FD6A-06E2-46A5-A14F-EB0930E1C06B}">
+    <comment ref="M14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -441,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="1" shapeId="0" xr:uid="{6FAD74BC-FF40-49A7-B903-3A34C0F187C3}">
+    <comment ref="H19" authorId="1">
       <text>
         <r>
           <rPr>
@@ -467,7 +462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="1" shapeId="0" xr:uid="{D82B6E9F-EBF4-4DCF-9471-7B90EE53C181}">
+    <comment ref="I19" authorId="1">
       <text>
         <r>
           <rPr>
@@ -492,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="1" shapeId="0" xr:uid="{6434F1B9-9D58-40FE-8106-BC324F9AB92D}">
+    <comment ref="J19" authorId="1">
       <text>
         <r>
           <rPr>
@@ -517,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K19" authorId="1" shapeId="0" xr:uid="{C2C02BB6-A4F6-4595-84D7-5D32FA87D827}">
+    <comment ref="K19" authorId="1">
       <text>
         <r>
           <rPr>
@@ -542,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L19" authorId="1" shapeId="0" xr:uid="{E04DB38D-D215-48B2-9451-49B68EBD2B43}">
+    <comment ref="L19" authorId="1">
       <text>
         <r>
           <rPr>
@@ -568,7 +563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M19" authorId="1" shapeId="0" xr:uid="{86E65E8B-3053-4CE2-B407-1CF5421D7E15}">
+    <comment ref="M19" authorId="1">
       <text>
         <r>
           <rPr>
@@ -591,6 +586,188 @@
 Valor Bruto em kPa
 Nao necessita de conversão.
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J26" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Digitos mais significativos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K26" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Digitos menos significativos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L26" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Digitos mais significativos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M26" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Digitos menos significativos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I33" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Valores absolutos já estao sendo passados, não necessita conversao</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J33" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Valores absolutos já estao sendo passados, não necessita conversao</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K33" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Checar os valores recebidos pela CAN no GTW</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L33" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Checar os valores recebidos pela CAN no GTW</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H34" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Testar valores recebidos no GTW.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I34" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Testar valores recebidos no GTW.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J34" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Testar valores recebidos no GTW.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K34" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Testar valores recebidos no GTW.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L34" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Testar valores recebidos no GTW.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M34" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Testar valores recebidos no GTW.</t>
         </r>
       </text>
     </comment>
@@ -848,11 +1025,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,6 +1071,20 @@
       <color indexed="81"/>
       <name val="Segoe UI"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1078,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1105,6 +1296,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1141,9 +1335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1204,7 +1396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1256,7 +1448,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1450,18 +1642,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A4E07F-D5EF-4478-A3C2-20808052840B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,25 +1669,25 @@
   <sheetData>
     <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
-      <c r="P2" s="20" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="P2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="21"/>
+      <c r="Q2" s="22"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -1509,25 +1701,25 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -1580,8 +1772,8 @@
       <c r="N4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="24"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -1612,23 +1804,23 @@
         <v>6</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="26"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="24"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -1659,23 +1851,23 @@
         <v>6</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26" t="s">
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="26"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="24"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -1721,8 +1913,8 @@
       <c r="N7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -1736,8 +1928,8 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P8" s="22"/>
-      <c r="Q8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -1751,23 +1943,23 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="23"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -1781,25 +1973,25 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="14" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="23"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -1852,8 +2044,8 @@
       <c r="N11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1905,8 +2097,8 @@
       <c r="N12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -1958,8 +2150,8 @@
       <c r="N13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="24"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -2003,8 +2195,8 @@
       <c r="N14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="24"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -2018,8 +2210,8 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P15" s="22"/>
-      <c r="Q15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="24"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -2033,23 +2225,23 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="23"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="20"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="24"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -2063,25 +2255,25 @@
       <c r="AB16" s="4"/>
     </row>
     <row r="17" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="14" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="24"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -2134,8 +2326,8 @@
       <c r="N18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="24"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -2178,7 +2370,7 @@
       <c r="K19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="27" t="s">
         <v>65</v>
       </c>
       <c r="M19" s="13" t="s">
@@ -2187,8 +2379,8 @@
       <c r="N19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="24"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -2218,8 +2410,8 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="8"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="24"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
@@ -2249,8 +2441,8 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="8"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="24"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -2264,48 +2456,48 @@
       <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P22" s="22"/>
-      <c r="Q22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="24"/>
     </row>
     <row r="23" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="19"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="23"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="20"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="24"/>
     </row>
     <row r="24" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="14" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="23"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="24"/>
     </row>
     <row r="25" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
@@ -2347,8 +2539,8 @@
       <c r="N25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="24"/>
     </row>
     <row r="26" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
@@ -2373,8 +2565,8 @@
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="8"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="24"/>
     </row>
     <row r="27" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
@@ -2393,8 +2585,8 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="8"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="24"/>
     </row>
     <row r="28" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
@@ -2413,52 +2605,52 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="8"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
     </row>
     <row r="29" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P29" s="22"/>
-      <c r="Q29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="19"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="23"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="20"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="14" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="23"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="24"/>
     </row>
     <row r="32" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
@@ -2500,8 +2692,8 @@
       <c r="N32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="24"/>
     </row>
     <row r="33" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
@@ -2540,8 +2732,8 @@
       <c r="N33" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="24"/>
     </row>
     <row r="34" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
@@ -2582,8 +2774,8 @@
       <c r="N34" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="24"/>
     </row>
     <row r="35" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="7"/>
@@ -2602,17 +2794,11 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="8"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
     <mergeCell ref="F24:N24"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B23:N23"/>
@@ -2629,6 +2815,12 @@
     <mergeCell ref="F3:N3"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Firmwares/Tabela de codificação de sensores.xlsx
+++ b/Firmwares/Tabela de codificação de sensores.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe-PC\Desktop\EK304\Firmwares\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE0A70C-0BBC-40B5-9EA3-FB4DA9BB2C82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -17,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,14 +33,15 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Vitor Gervasi Adão</author>
     <author>Edelbrock-PC</author>
     <author>Windows 7</author>
+    <author>Felipe-PC</author>
   </authors>
   <commentList>
-    <comment ref="H12" authorId="0">
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0">
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K12" authorId="0">
+    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L12" authorId="0">
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="0">
+    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0">
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -238,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -267,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0">
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -296,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0">
+    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -326,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0">
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -356,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="0">
+    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -386,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L14" authorId="0">
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -411,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M14" authorId="0">
+    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -436,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="1">
+    <comment ref="H19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -462,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="1">
+    <comment ref="I19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -487,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="1">
+    <comment ref="J19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -512,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K19" authorId="1">
+    <comment ref="K19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -537,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L19" authorId="1">
+    <comment ref="L19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -563,7 +572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M19" authorId="1">
+    <comment ref="M19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -589,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J26" authorId="2">
+    <comment ref="J26" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -602,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K26" authorId="2">
+    <comment ref="K26" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -615,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L26" authorId="2">
+    <comment ref="L26" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -628,7 +637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M26" authorId="2">
+    <comment ref="M26" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -641,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I33" authorId="2">
+    <comment ref="I33" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -654,7 +663,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J33" authorId="2">
+    <comment ref="J33" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -667,7 +676,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K33" authorId="2">
+    <comment ref="K33" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -680,7 +689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L33" authorId="2">
+    <comment ref="L33" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -693,7 +702,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="H34" authorId="2">
+    <comment ref="M33" authorId="3" shapeId="0" xr:uid="{ED2D9462-CB2C-4CD3-94E6-54A584087F9C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Valor absoluto, não necessita de conversão</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H34" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -706,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I34" authorId="2">
+    <comment ref="I34" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -719,7 +741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J34" authorId="2">
+    <comment ref="J34" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -732,7 +754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K34" authorId="2">
+    <comment ref="K34" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -745,7 +767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L34" authorId="2">
+    <comment ref="L34" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -758,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M34" authorId="2">
+    <comment ref="M34" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -776,7 +798,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
   <si>
     <t>0x00</t>
   </si>
@@ -911,9 +933,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>RPM</t>
-  </si>
-  <si>
     <t>Susp Tras Direita</t>
   </si>
   <si>
@@ -1020,12 +1039,18 @@
   </si>
   <si>
     <t>Rotação</t>
+  </si>
+  <si>
+    <t>Velocidade</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;@"/>
   </numFmts>
@@ -1296,9 +1321,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1335,7 +1358,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1351,6 +1376,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1642,18 +1671,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,13 +1731,13 @@
     </row>
     <row r="3" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -1804,18 +1833,18 @@
         <v>6</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="I5" s="27"/>
+      <c r="J5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="14"/>
+      <c r="M5" s="27"/>
       <c r="N5" s="8" t="s">
         <v>0</v>
       </c>
@@ -1851,18 +1880,18 @@
         <v>6</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="27"/>
+      <c r="J6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14" t="s">
+      <c r="K6" s="27"/>
+      <c r="L6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="14"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1980,7 +2009,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -2077,22 +2106,22 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="13" t="s">
-        <v>46</v>
-      </c>
       <c r="M12" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>0</v>
@@ -2130,22 +2159,22 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>4</v>
@@ -2187,10 +2216,10 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>8</v>
@@ -2262,7 +2291,7 @@
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -2342,7 +2371,7 @@
     </row>
     <row r="19" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>35</v>
@@ -2359,22 +2388,22 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="27" t="s">
         <v>65</v>
       </c>
+      <c r="L19" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="M19" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>0</v>
@@ -2486,7 +2515,7 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -2543,28 +2572,38 @@
       <c r="Q25" s="24"/>
     </row>
     <row r="26" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="E26" s="11" t="str">
         <f>DEC2HEX((_xlfn.BITLSHIFT(HEX2DEC(B26),7)+_xlfn.BITLSHIFT(HEX2DEC(C26),3)+HEX2DEC(D26)),4)</f>
-        <v>0000</v>
-      </c>
-      <c r="F26" s="9"/>
+        <v>0181</v>
+      </c>
+      <c r="F26" s="9">
+        <v>5</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M26" s="13"/>
-      <c r="N26" s="8"/>
+      <c r="N26" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="P26" s="23"/>
       <c r="Q26" s="24"/>
     </row>
@@ -2639,7 +2678,7 @@
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -2715,19 +2754,19 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J33" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="13" t="s">
+      <c r="L33" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L33" s="13" t="s">
-        <v>40</v>
-      </c>
       <c r="M33" s="13" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="N33" s="8" t="s">
         <v>0</v>
@@ -2754,22 +2793,22 @@
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="J34" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="K34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K34" s="13" t="s">
+      <c r="L34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="13" t="s">
+      <c r="M34" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>4</v>
@@ -2799,6 +2838,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="F24:N24"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B23:N23"/>
@@ -2815,12 +2860,6 @@
     <mergeCell ref="F3:N3"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Firmwares/Tabela de codificação de sensores.xlsx
+++ b/Firmwares/Tabela de codificação de sensores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe-PC\Desktop\EK304\Firmwares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE0A70C-0BBC-40B5-9EA3-FB4DA9BB2C82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3FBB74-31FD-4F07-AEB1-6633114EFA38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,24 +399,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Vitor Gervasi Adão:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Suspensão: O valor está limitado entre: 126 a 876, no código aplicou-se a função map() o qual torna os limites de: 0 a 90.
-Valores de 0 a 90.</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Suspensão: O valor está limitado entre: 126 a 876, no código aplicou-se a função map() o qual torna os limites de: 0 a 255.
+Valores de 0 a 255</t>
         </r>
       </text>
     </comment>
@@ -424,24 +413,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Vitor Gervasi Adão:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Suspensão: O valor está limitado entre: 126 a 876, no código aplicou-se a função map() o qual torna os limites de: 0 a 90.
-Valores de 0 a 90.</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Suspensão: O valor está limitado entre: 126 a 876, no código aplicou-se a função map() o qual torna os limites de: 0 a 255.
+Valores de 0 a 255.</t>
         </r>
       </text>
     </comment>
@@ -1378,10 +1356,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1425,7 +1399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1477,7 +1451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1681,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Firmwares/Tabela de codificação de sensores.xlsx
+++ b/Firmwares/Tabela de codificação de sensores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe-PC\Desktop\EK304\Firmwares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3FBB74-31FD-4F07-AEB1-6633114EFA38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2750E53C-503F-462E-B5BD-5C8219CC8252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,58 +576,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="J26" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Digitos mais significativos</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K26" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Digitos menos significativos</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L26" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Digitos mais significativos</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M26" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Digitos menos significativos</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="I33" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
@@ -776,7 +724,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="113">
   <si>
     <t>0x00</t>
   </si>
@@ -1024,6 +972,123 @@
   <si>
     <t>3</t>
   </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>MODULE</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>0x11</t>
+  </si>
+  <si>
+    <t>0x12</t>
+  </si>
+  <si>
+    <t>0x13</t>
+  </si>
+  <si>
+    <t>0x0F</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>0x06</t>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>0x09</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+  </si>
+  <si>
+    <t>0x0B</t>
+  </si>
+  <si>
+    <t>0x0C</t>
+  </si>
+  <si>
+    <t>0x0D</t>
+  </si>
+  <si>
+    <t>0x0E</t>
+  </si>
+  <si>
+    <t>Gyro01</t>
+  </si>
+  <si>
+    <t>Acc01</t>
+  </si>
+  <si>
+    <t>Acc03</t>
+  </si>
+  <si>
+    <t>Acc02</t>
+  </si>
+  <si>
+    <t>Gyro02</t>
+  </si>
+  <si>
+    <t>Gyro03</t>
+  </si>
+  <si>
+    <t>GearPosition</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>OilPressure</t>
+  </si>
+  <si>
+    <t>OilTemp</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>AirTemp</t>
+  </si>
+  <si>
+    <t>WaterTemp</t>
+  </si>
+  <si>
+    <t>TPS</t>
+  </si>
+  <si>
+    <t>LambdaFactor</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>SuspRear</t>
+  </si>
+  <si>
+    <t>SuspFront</t>
+  </si>
 </sst>
 </file>
 
@@ -1032,7 +1097,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1080,14 +1145,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1146,7 +1203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1268,11 +1325,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1299,7 +1530,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1338,6 +1569,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1656,7 +1929,7 @@
   <dimension ref="B1:AB35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,7 +1940,10 @@
     <col min="6" max="14" width="8.7109375" customWidth="1"/>
     <col min="15" max="15" width="4.42578125" customWidth="1"/>
     <col min="17" max="17" width="29.85546875" customWidth="1"/>
-    <col min="18" max="28" width="9.140625" style="1"/>
+    <col min="18" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="22.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="1" customWidth="1"/>
+    <col min="22" max="28" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1692,10 +1968,18 @@
       </c>
       <c r="Q2" s="22"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
+      <c r="S2" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="41" t="s">
+        <v>75</v>
+      </c>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -1724,10 +2008,18 @@
       <c r="P3" s="23"/>
       <c r="Q3" s="24"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="S3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="U3" s="30">
+        <v>2</v>
+      </c>
+      <c r="V3" s="32">
+        <v>2</v>
+      </c>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
@@ -1778,10 +2070,18 @@
       <c r="P4" s="23"/>
       <c r="Q4" s="24"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
+      <c r="S4" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="U4" s="37">
+        <v>3</v>
+      </c>
+      <c r="V4" s="38">
+        <v>1</v>
+      </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
@@ -1825,10 +2125,18 @@
       <c r="P5" s="23"/>
       <c r="Q5" s="24"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
+      <c r="S5" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="U5" s="30">
+        <v>3</v>
+      </c>
+      <c r="V5" s="32">
+        <v>1</v>
+      </c>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
@@ -1872,10 +2180,18 @@
       <c r="P6" s="23"/>
       <c r="Q6" s="24"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
+      <c r="S6" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="U6" s="30">
+        <v>3</v>
+      </c>
+      <c r="V6" s="32">
+        <v>1</v>
+      </c>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -1919,10 +2235,18 @@
       <c r="P7" s="23"/>
       <c r="Q7" s="24"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
+      <c r="S7" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="U7" s="30">
+        <v>3</v>
+      </c>
+      <c r="V7" s="32">
+        <v>1</v>
+      </c>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
@@ -1934,10 +2258,18 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="24"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
+      <c r="S8" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="U8" s="30">
+        <v>3</v>
+      </c>
+      <c r="V8" s="32">
+        <v>4</v>
+      </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
@@ -1964,10 +2296,18 @@
       <c r="P9" s="23"/>
       <c r="Q9" s="24"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
+      <c r="S9" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="U9" s="30">
+        <v>3</v>
+      </c>
+      <c r="V9" s="32">
+        <v>4</v>
+      </c>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
@@ -1996,10 +2336,18 @@
       <c r="P10" s="23"/>
       <c r="Q10" s="24"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
+      <c r="S10" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="U10" s="30">
+        <v>1</v>
+      </c>
+      <c r="V10" s="32">
+        <v>2</v>
+      </c>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
@@ -2050,10 +2398,18 @@
       <c r="P11" s="23"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
+      <c r="S11" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="U11" s="30">
+        <v>1</v>
+      </c>
+      <c r="V11" s="32">
+        <v>3</v>
+      </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
@@ -2103,10 +2459,18 @@
       <c r="P12" s="23"/>
       <c r="Q12" s="24"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
+      <c r="S12" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="U12" s="30">
+        <v>2</v>
+      </c>
+      <c r="V12" s="32">
+        <v>3</v>
+      </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
@@ -2156,10 +2520,18 @@
       <c r="P13" s="23"/>
       <c r="Q13" s="24"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
+      <c r="S13" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="T13" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="U13" s="30">
+        <v>2</v>
+      </c>
+      <c r="V13" s="32">
+        <v>3</v>
+      </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
@@ -2201,10 +2573,18 @@
       <c r="P14" s="23"/>
       <c r="Q14" s="24"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="S14" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="U14" s="30">
+        <v>3</v>
+      </c>
+      <c r="V14" s="32">
+        <v>4</v>
+      </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
@@ -2216,10 +2596,18 @@
       <c r="P15" s="23"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+      <c r="S15" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="T15" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="U15" s="30">
+        <v>1</v>
+      </c>
+      <c r="V15" s="32">
+        <v>4</v>
+      </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -2246,10 +2634,18 @@
       <c r="P16" s="23"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
+      <c r="S16" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="T16" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="U16" s="30">
+        <v>1</v>
+      </c>
+      <c r="V16" s="32">
+        <v>4</v>
+      </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
@@ -2278,10 +2674,18 @@
       <c r="P17" s="23"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
+      <c r="S17" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="T17" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="U17" s="30">
+        <v>1</v>
+      </c>
+      <c r="V17" s="32">
+        <v>4</v>
+      </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
@@ -2332,10 +2736,18 @@
       <c r="P18" s="23"/>
       <c r="Q18" s="24"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
+      <c r="S18" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="T18" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="U18" s="30">
+        <v>1</v>
+      </c>
+      <c r="V18" s="32">
+        <v>2</v>
+      </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
@@ -2385,10 +2797,18 @@
       <c r="P19" s="23"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
+      <c r="S19" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="T19" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="U19" s="30">
+        <v>1</v>
+      </c>
+      <c r="V19" s="32">
+        <v>2</v>
+      </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
@@ -2416,10 +2836,18 @@
       <c r="P20" s="23"/>
       <c r="Q20" s="24"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
+      <c r="S20" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="T20" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="U20" s="30">
+        <v>1</v>
+      </c>
+      <c r="V20" s="32">
+        <v>2</v>
+      </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
@@ -2447,10 +2875,18 @@
       <c r="P21" s="23"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
+      <c r="S21" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="T21" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="U21" s="30">
+        <v>3</v>
+      </c>
+      <c r="V21" s="32">
+        <v>1</v>
+      </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
@@ -2461,6 +2897,18 @@
     <row r="22" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P22" s="23"/>
       <c r="Q22" s="24"/>
+      <c r="S22" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="T22" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="U22" s="34">
+        <v>1</v>
+      </c>
+      <c r="V22" s="35">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
@@ -2567,14 +3015,14 @@
       <c r="I26" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13" t="s">
+      <c r="K26" s="28"/>
+      <c r="L26" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="M26" s="13"/>
+      <c r="M26" s="28"/>
       <c r="N26" s="8" t="s">
         <v>0</v>
       </c>
@@ -2811,7 +3259,9 @@
       <c r="Q35" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="H5:I5"/>
